--- a/hockey_cleaned.xlsx
+++ b/hockey_cleaned.xlsx
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.55</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="G2" t="n">
         <v>299</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.388</v>
+        <v>50.81967213114754</v>
       </c>
       <c r="G3" t="n">
         <v>292</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.575</v>
+        <v>63.88888888888889</v>
       </c>
       <c r="G4" t="n">
         <v>344</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.613</v>
+        <v>68.05555555555556</v>
       </c>
       <c r="G5" t="n">
         <v>284</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.425</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="G6" t="n">
         <v>273</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.463</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>272</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.388</v>
+        <v>44.92753623188405</v>
       </c>
       <c r="G8" t="n">
         <v>238</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.575</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="G9" t="n">
         <v>340</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.338</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="G10" t="n">
         <v>256</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.487</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G11" t="n">
         <v>273</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="G12" t="n">
         <v>272</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.312</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="G13" t="n">
         <v>223</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.45</v>
+        <v>53.73134328358209</v>
       </c>
       <c r="G14" t="n">
         <v>297</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.412</v>
+        <v>47.14285714285714</v>
       </c>
       <c r="G15" t="n">
         <v>252</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.512</v>
+        <v>55.4054054054054</v>
       </c>
       <c r="G16" t="n">
         <v>342</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="G17" t="n">
         <v>236</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.588</v>
+        <v>68.11594202898551</v>
       </c>
       <c r="G18" t="n">
         <v>310</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.287</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G19" t="n">
         <v>241</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.35</v>
+        <v>39.43661971830986</v>
       </c>
       <c r="G20" t="n">
         <v>243</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.463</v>
+        <v>50.68493150684932</v>
       </c>
       <c r="G21" t="n">
         <v>258</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.325</v>
+        <v>37.68115942028986</v>
       </c>
       <c r="G22" t="n">
         <v>260</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.45</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="G23" t="n">
         <v>270</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.388</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="G24" t="n">
         <v>289</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.388</v>
+        <v>45.58823529411764</v>
       </c>
       <c r="G25" t="n">
         <v>296</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.45</v>
+        <v>55.38461538461539</v>
       </c>
       <c r="G26" t="n">
         <v>257</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.537</v>
+        <v>63.23529411764706</v>
       </c>
       <c r="G27" t="n">
         <v>320</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.45</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="G28" t="n">
         <v>295</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.325</v>
+        <v>38.80597014925373</v>
       </c>
       <c r="G29" t="n">
         <v>247</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.438</v>
+        <v>53.03030303030303</v>
       </c>
       <c r="G30" t="n">
         <v>287</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4</v>
+        <v>43.24324324324324</v>
       </c>
       <c r="G31" t="n">
         <v>246</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.512</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="G32" t="n">
         <v>267</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.475</v>
+        <v>55.07246376811595</v>
       </c>
       <c r="G33" t="n">
         <v>289</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.425</v>
+        <v>49.27536231884059</v>
       </c>
       <c r="G34" t="n">
         <v>291</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.625</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G35" t="n">
         <v>321</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4</v>
+        <v>46.3768115942029</v>
       </c>
       <c r="G36" t="n">
         <v>252</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.487</v>
+        <v>54.92957746478874</v>
       </c>
       <c r="G37" t="n">
         <v>343</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.25</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="G38" t="n">
         <v>255</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.212</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="G39" t="n">
         <v>219</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.45</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="G40" t="n">
         <v>279</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.375</v>
+        <v>41.0958904109589</v>
       </c>
       <c r="G41" t="n">
         <v>234</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.525</v>
+        <v>61.76470588235294</v>
       </c>
       <c r="G42" t="n">
         <v>285</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5620000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="G43" t="n">
         <v>330</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.412</v>
+        <v>50.76923076923077</v>
       </c>
       <c r="G44" t="n">
         <v>251</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.607</v>
+        <v>66.23376623376623</v>
       </c>
       <c r="G45" t="n">
         <v>332</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.452</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="G46" t="n">
         <v>335</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.512</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="G47" t="n">
         <v>322</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5600000000000001</v>
+        <v>65.27777777777779</v>
       </c>
       <c r="G48" t="n">
         <v>279</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5600000000000001</v>
+        <v>62.66666666666667</v>
       </c>
       <c r="G49" t="n">
         <v>369</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.31</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="G50" t="n">
         <v>242</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.31</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G51" t="n">
         <v>284</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.464</v>
+        <v>52.70270270270269</v>
       </c>
       <c r="G52" t="n">
         <v>338</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.429</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="G53" t="n">
         <v>272</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.571</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="G54" t="n">
         <v>326</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.476</v>
+        <v>51.94805194805194</v>
       </c>
       <c r="G55" t="n">
         <v>308</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.476</v>
+        <v>51.94805194805194</v>
       </c>
       <c r="G56" t="n">
         <v>335</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.405</v>
+        <v>46.57534246575342</v>
       </c>
       <c r="G57" t="n">
         <v>304</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.119</v>
+        <v>12.5</v>
       </c>
       <c r="G58" t="n">
         <v>202</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.429</v>
+        <v>49.31506849315068</v>
       </c>
       <c r="G59" t="n">
         <v>319</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.667</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G60" t="n">
         <v>367</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5600000000000001</v>
+        <v>63.51351351351351</v>
       </c>
       <c r="G61" t="n">
         <v>351</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.131</v>
+        <v>13.41463414634146</v>
       </c>
       <c r="G62" t="n">
         <v>218</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44</v>
+        <v>50.68493150684932</v>
       </c>
       <c r="G63" t="n">
         <v>282</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.274</v>
+        <v>29.87012987012987</v>
       </c>
       <c r="G64" t="n">
         <v>245</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.524</v>
+        <v>60.27397260273973</v>
       </c>
       <c r="G65" t="n">
         <v>288</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.548</v>
+        <v>61.33333333333333</v>
       </c>
       <c r="G66" t="n">
         <v>346</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.512</v>
+        <v>55.84415584415584</v>
       </c>
       <c r="G67" t="n">
         <v>325</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.476</v>
+        <v>51.94805194805194</v>
       </c>
       <c r="G68" t="n">
         <v>322</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.393</v>
+        <v>41.77215189873418</v>
       </c>
       <c r="G69" t="n">
         <v>229</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5</v>
+        <v>59.15492957746478</v>
       </c>
       <c r="G70" t="n">
         <v>289</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.512</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="G71" t="n">
         <v>282</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5</v>
+        <v>59.15492957746478</v>
       </c>
       <c r="G72" t="n">
         <v>302</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.464</v>
+        <v>52</v>
       </c>
       <c r="G73" t="n">
         <v>254</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5</v>
+        <v>59.15492957746478</v>
       </c>
       <c r="G74" t="n">
         <v>286</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.548</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="G75" t="n">
         <v>356</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.298</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="G76" t="n">
         <v>261</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.393</v>
+        <v>49.25373134328358</v>
       </c>
       <c r="G77" t="n">
         <v>233</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.321</v>
+        <v>36</v>
       </c>
       <c r="G78" t="n">
         <v>227</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.321</v>
+        <v>37.5</v>
       </c>
       <c r="G79" t="n">
         <v>294</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.488</v>
+        <v>58.57142857142858</v>
       </c>
       <c r="G80" t="n">
         <v>283</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5600000000000001</v>
+        <v>65.27777777777779</v>
       </c>
       <c r="G81" t="n">
         <v>306</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.429</v>
+        <v>50</v>
       </c>
       <c r="G82" t="n">
         <v>282</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.619</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="G83" t="n">
         <v>299</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.167</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G84" t="n">
         <v>201</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.417</v>
+        <v>47.2972972972973</v>
       </c>
       <c r="G85" t="n">
         <v>294</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.524</v>
+        <v>61.97183098591549</v>
       </c>
       <c r="G86" t="n">
         <v>299</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.405</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="G87" t="n">
         <v>277</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.393</v>
+        <v>48.52941176470588</v>
       </c>
       <c r="G88" t="n">
         <v>252</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.476</v>
+        <v>54.7945205479452</v>
       </c>
       <c r="G89" t="n">
         <v>270</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.357</v>
+        <v>41.0958904109589</v>
       </c>
       <c r="G90" t="n">
         <v>224</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.512</v>
+        <v>59.72222222222222</v>
       </c>
       <c r="G91" t="n">
         <v>280</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.488</v>
+        <v>50.61728395061728</v>
       </c>
       <c r="G92" t="n">
         <v>279</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.464</v>
+        <v>52.70270270270269</v>
       </c>
       <c r="G93" t="n">
         <v>277</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.286</v>
+        <v>32</v>
       </c>
       <c r="G94" t="n">
         <v>245</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.333</v>
+        <v>37.2093023255814</v>
       </c>
       <c r="G95" t="n">
         <v>125</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5620000000000001</v>
+        <v>60</v>
       </c>
       <c r="G96" t="n">
         <v>150</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.458</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G97" t="n">
         <v>130</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G98" t="n">
         <v>163</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5</v>
+        <v>55.81395348837209</v>
       </c>
       <c r="G99" t="n">
         <v>156</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.354</v>
+        <v>42.5</v>
       </c>
       <c r="G100" t="n">
         <v>136</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6879999999999999</v>
+        <v>75</v>
       </c>
       <c r="G101" t="n">
         <v>180</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.354</v>
+        <v>38.63636363636363</v>
       </c>
       <c r="G102" t="n">
         <v>136</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.417</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="G103" t="n">
         <v>115</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.396</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="G104" t="n">
         <v>127</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.333</v>
+        <v>41.02564102564102</v>
       </c>
       <c r="G105" t="n">
         <v>142</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.375</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="G106" t="n">
         <v>125</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.458</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G107" t="n">
         <v>136</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.312</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="G108" t="n">
         <v>126</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.458</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="G109" t="n">
         <v>139</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.188</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="G110" t="n">
         <v>117</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.583</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G111" t="n">
         <v>150</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.604</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="G112" t="n">
         <v>181</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.625</v>
+        <v>69.76744186046511</v>
       </c>
       <c r="G113" t="n">
         <v>185</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.396</v>
+        <v>43.18181818181818</v>
       </c>
       <c r="G114" t="n">
         <v>129</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.583</v>
+        <v>65.11627906976744</v>
       </c>
       <c r="G115" t="n">
         <v>178</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.354</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="G116" t="n">
         <v>120</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.438</v>
+        <v>52.5</v>
       </c>
       <c r="G117" t="n">
         <v>135</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.375</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
         <v>153</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.458</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G119" t="n">
         <v>136</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.333</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G120" t="n">
         <v>157</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.427</v>
+        <v>47.2972972972973</v>
       </c>
       <c r="G121" t="n">
         <v>234</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.488</v>
+        <v>56.33802816901409</v>
       </c>
       <c r="G122" t="n">
         <v>282</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.402</v>
+        <v>44</v>
       </c>
       <c r="G123" t="n">
         <v>247</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.415</v>
+        <v>47.88732394366197</v>
       </c>
       <c r="G124" t="n">
         <v>241</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.488</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="G125" t="n">
         <v>273</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.573</v>
+        <v>65.27777777777779</v>
       </c>
       <c r="G126" t="n">
         <v>326</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.317</v>
+        <v>38.23529411764706</v>
       </c>
       <c r="G127" t="n">
         <v>227</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.756</v>
+        <v>82.66666666666667</v>
       </c>
       <c r="G128" t="n">
         <v>325</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.366</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="G129" t="n">
         <v>240</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5</v>
+        <v>56.94444444444444</v>
       </c>
       <c r="G130" t="n">
         <v>254</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.415</v>
+        <v>46.57534246575342</v>
       </c>
       <c r="G131" t="n">
         <v>237</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.293</v>
+        <v>37.5</v>
       </c>
       <c r="G132" t="n">
         <v>256</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.488</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="G133" t="n">
         <v>265</v>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.451</v>
+        <v>52.85714285714286</v>
       </c>
       <c r="G134" t="n">
         <v>215</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.268</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="G135" t="n">
         <v>229</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5</v>
+        <v>60.29411764705882</v>
       </c>
       <c r="G136" t="n">
         <v>272</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.22</v>
+        <v>23.37662337662337</v>
       </c>
       <c r="G137" t="n">
         <v>191</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.549</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="G138" t="n">
         <v>282</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.598</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="G139" t="n">
         <v>362</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.244</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G140" t="n">
         <v>252</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.39</v>
+        <v>48.48484848484848</v>
       </c>
       <c r="G141" t="n">
         <v>219</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.463</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="G142" t="n">
         <v>238</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.415</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="G143" t="n">
         <v>247</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.39</v>
+        <v>47.76119402985074</v>
       </c>
       <c r="G144" t="n">
         <v>278</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.476</v>
+        <v>54.92957746478874</v>
       </c>
       <c r="G145" t="n">
         <v>234</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.439</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="G146" t="n">
         <v>275</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.439</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="G147" t="n">
         <v>245</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.317</v>
+        <v>35.61643835616438</v>
       </c>
       <c r="G148" t="n">
         <v>234</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.488</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G149" t="n">
         <v>237</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.39</v>
+        <v>43.83561643835616</v>
       </c>
       <c r="G150" t="n">
         <v>214</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.415</v>
+        <v>49.27536231884059</v>
       </c>
       <c r="G151" t="n">
         <v>223</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.598</v>
+        <v>67.12328767123287</v>
       </c>
       <c r="G152" t="n">
         <v>277</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.585</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="G153" t="n">
         <v>252</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.463</v>
+        <v>59.375</v>
       </c>
       <c r="G154" t="n">
         <v>253</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.439</v>
+        <v>49.31506849315068</v>
       </c>
       <c r="G155" t="n">
         <v>252</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.427</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="G156" t="n">
         <v>221</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.39</v>
+        <v>45.07042253521127</v>
       </c>
       <c r="G157" t="n">
         <v>226</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.341</v>
+        <v>39.43661971830986</v>
       </c>
       <c r="G158" t="n">
         <v>214</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.378</v>
+        <v>46.26865671641791</v>
       </c>
       <c r="G159" t="n">
         <v>249</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.549</v>
+        <v>66.17647058823529</v>
       </c>
       <c r="G160" t="n">
         <v>231</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.354</v>
+        <v>41.42857142857143</v>
       </c>
       <c r="G161" t="n">
         <v>240</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.463</v>
+        <v>52.77777777777778</v>
       </c>
       <c r="G162" t="n">
         <v>258</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.378</v>
+        <v>46.26865671641791</v>
       </c>
       <c r="G163" t="n">
         <v>226</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.549</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="G164" t="n">
         <v>274</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.463</v>
+        <v>50.66666666666667</v>
       </c>
       <c r="G165" t="n">
         <v>240</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.463</v>
+        <v>51.35135135135135</v>
       </c>
       <c r="G166" t="n">
         <v>285</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.329</v>
+        <v>36.48648648648648</v>
       </c>
       <c r="G167" t="n">
         <v>211</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.439</v>
+        <v>50.70422535211267</v>
       </c>
       <c r="G168" t="n">
         <v>236</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.39</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="G169" t="n">
         <v>217</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.366</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="G170" t="n">
         <v>230</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.427</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G171" t="n">
         <v>257</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.402</v>
+        <v>45.20547945205479</v>
       </c>
       <c r="G172" t="n">
         <v>214</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.317</v>
+        <v>37.68115942028986</v>
       </c>
       <c r="G173" t="n">
         <v>205</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.476</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G174" t="n">
         <v>221</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.439</v>
+        <v>55.38461538461539</v>
       </c>
       <c r="G175" t="n">
         <v>211</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.317</v>
+        <v>38.80597014925373</v>
       </c>
       <c r="G176" t="n">
         <v>217</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.402</v>
+        <v>44.5945945945946</v>
       </c>
       <c r="G177" t="n">
         <v>200</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.366</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="G178" t="n">
         <v>192</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.476</v>
+        <v>60</v>
       </c>
       <c r="G179" t="n">
         <v>231</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.598</v>
+        <v>69.01408450704226</v>
       </c>
       <c r="G180" t="n">
         <v>242</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.537</v>
+        <v>65.67164179104478</v>
       </c>
       <c r="G181" t="n">
         <v>250</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.427</v>
+        <v>48.61111111111111</v>
       </c>
       <c r="G182" t="n">
         <v>215</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.293</v>
+        <v>35.82089552238806</v>
       </c>
       <c r="G183" t="n">
         <v>203</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.463</v>
+        <v>53.52112676056338</v>
       </c>
       <c r="G184" t="n">
         <v>227</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.451</v>
+        <v>53.62318840579711</v>
       </c>
       <c r="G185" t="n">
         <v>235</v>
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.585</v>
+        <v>67.6056338028169</v>
       </c>
       <c r="G186" t="n">
         <v>225</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.366</v>
+        <v>42.25352112676056</v>
       </c>
       <c r="G187" t="n">
         <v>212</v>
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.305</v>
+        <v>39.0625</v>
       </c>
       <c r="G188" t="n">
         <v>197</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.415</v>
+        <v>50.74626865671642</v>
       </c>
       <c r="G189" t="n">
         <v>193</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.512</v>
+        <v>59.15492957746478</v>
       </c>
       <c r="G190" t="n">
         <v>242</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.427</v>
+        <v>50</v>
       </c>
       <c r="G191" t="n">
         <v>224</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.488</v>
+        <v>62.5</v>
       </c>
       <c r="G192" t="n">
         <v>228</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.415</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="G193" t="n">
         <v>210</v>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.549</v>
+        <v>60.81081081081081</v>
       </c>
       <c r="G194" t="n">
         <v>256</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.207</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="G195" t="n">
         <v>151</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.366</v>
+        <v>41.0958904109589</v>
       </c>
       <c r="G196" t="n">
         <v>194</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.305</v>
+        <v>36.76470588235294</v>
       </c>
       <c r="G197" t="n">
         <v>224</v>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.488</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G198" t="n">
         <v>219</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.427</v>
+        <v>50.72463768115942</v>
       </c>
       <c r="G199" t="n">
         <v>215</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.476</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="G200" t="n">
         <v>214</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.451</v>
+        <v>56.92307692307692</v>
       </c>
       <c r="G201" t="n">
         <v>207</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.366</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G202" t="n">
         <v>211</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.415</v>
+        <v>53.125</v>
       </c>
       <c r="G203" t="n">
         <v>210</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.354</v>
+        <v>41.42857142857143</v>
       </c>
       <c r="G204" t="n">
         <v>202</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.537</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="G205" t="n">
         <v>239</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.622</v>
+        <v>72.85714285714285</v>
       </c>
       <c r="G206" t="n">
         <v>236</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.524</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="G207" t="n">
         <v>245</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.402</v>
+        <v>47.14285714285714</v>
       </c>
       <c r="G208" t="n">
         <v>230</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.366</v>
+        <v>46.875</v>
       </c>
       <c r="G209" t="n">
         <v>210</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.39</v>
+        <v>41.55844155844156</v>
       </c>
       <c r="G210" t="n">
         <v>189</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.39</v>
+        <v>45.07042253521127</v>
       </c>
       <c r="G211" t="n">
         <v>184</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.341</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="G212" t="n">
         <v>190</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.573</v>
+        <v>66.19718309859155</v>
       </c>
       <c r="G213" t="n">
         <v>248</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.293</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G214" t="n">
         <v>194</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.402</v>
+        <v>46.47887323943662</v>
       </c>
       <c r="G215" t="n">
         <v>217</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.537</v>
+        <v>65.67164179104478</v>
       </c>
       <c r="G216" t="n">
         <v>239</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>0.451</v>
+        <v>58.73015873015873</v>
       </c>
       <c r="G217" t="n">
         <v>231</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>0.476</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="G218" t="n">
         <v>205</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.463</v>
+        <v>55.88235294117647</v>
       </c>
       <c r="G219" t="n">
         <v>242</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.378</v>
+        <v>48.4375</v>
       </c>
       <c r="G220" t="n">
         <v>196</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.451</v>
+        <v>53.62318840579711</v>
       </c>
       <c r="G221" t="n">
         <v>237</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.232</v>
+        <v>26.02739726027397</v>
       </c>
       <c r="G222" t="n">
         <v>179</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.549</v>
+        <v>60</v>
       </c>
       <c r="G223" t="n">
         <v>268</v>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.28</v>
+        <v>32.85714285714285</v>
       </c>
       <c r="G224" t="n">
         <v>192</v>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.378</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="G225" t="n">
         <v>200</v>
@@ -7443,7 +7443,7 @@
         <v>3</v>
       </c>
       <c r="F226" t="n">
-        <v>0.415</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="G226" t="n">
         <v>217</v>
@@ -7474,7 +7474,7 @@
         <v>4</v>
       </c>
       <c r="F227" t="n">
-        <v>0.171</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G227" t="n">
         <v>170</v>
@@ -7505,7 +7505,7 @@
         <v>6</v>
       </c>
       <c r="F228" t="n">
-        <v>0.293</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="G228" t="n">
         <v>210</v>
@@ -7536,7 +7536,7 @@
         <v>4</v>
       </c>
       <c r="F229" t="n">
-        <v>0.427</v>
+        <v>49.29577464788733</v>
       </c>
       <c r="G229" t="n">
         <v>213</v>
@@ -7567,7 +7567,7 @@
         <v>5</v>
       </c>
       <c r="F230" t="n">
-        <v>0.378</v>
+        <v>43.05555555555556</v>
       </c>
       <c r="G230" t="n">
         <v>211</v>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.451</v>
+        <v>51.38888888888889</v>
       </c>
       <c r="G231" t="n">
         <v>217</v>
@@ -7629,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="F232" t="n">
-        <v>0.402</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="G232" t="n">
         <v>242</v>
@@ -7660,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>0.512</v>
+        <v>59.15492957746478</v>
       </c>
       <c r="G233" t="n">
         <v>233</v>
@@ -7691,7 +7691,7 @@
         <v>6</v>
       </c>
       <c r="F234" t="n">
-        <v>0.524</v>
+        <v>59.72222222222222</v>
       </c>
       <c r="G234" t="n">
         <v>211</v>
@@ -7722,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="F235" t="n">
-        <v>0.585</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G235" t="n">
         <v>278</v>
@@ -7753,7 +7753,7 @@
         <v>8</v>
       </c>
       <c r="F236" t="n">
-        <v>0.39</v>
+        <v>48.48484848484848</v>
       </c>
       <c r="G236" t="n">
         <v>226</v>
@@ -7784,7 +7784,7 @@
         <v>6</v>
       </c>
       <c r="F237" t="n">
-        <v>0.524</v>
+        <v>56.57894736842105</v>
       </c>
       <c r="G237" t="n">
         <v>244</v>
@@ -7815,7 +7815,7 @@
         <v>4</v>
       </c>
       <c r="F238" t="n">
-        <v>0.476</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="G238" t="n">
         <v>245</v>
@@ -7846,7 +7846,7 @@
         <v>4</v>
       </c>
       <c r="F239" t="n">
-        <v>0.427</v>
+        <v>47.94520547945205</v>
       </c>
       <c r="G239" t="n">
         <v>196</v>
@@ -7877,7 +7877,7 @@
         <v>7</v>
       </c>
       <c r="F240" t="n">
-        <v>0.341</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="G240" t="n">
         <v>199</v>
@@ -7908,7 +7908,7 @@
         <v>5</v>
       </c>
       <c r="F241" t="n">
-        <v>0.549</v>
+        <v>60.81081081081081</v>
       </c>
       <c r="G241" t="n">
         <v>251</v>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>0.293</v>
+        <v>32.87671232876712</v>
       </c>
       <c r="G242" t="n">
         <v>194</v>
@@ -7970,7 +7970,7 @@
         <v>3</v>
       </c>
       <c r="F243" t="n">
-        <v>0.354</v>
+        <v>41.42857142857143</v>
       </c>
       <c r="G243" t="n">
         <v>218</v>
@@ -8001,7 +8001,7 @@
         <v>2</v>
       </c>
       <c r="F244" t="n">
-        <v>0.5</v>
+        <v>57.74647887323944</v>
       </c>
       <c r="G244" t="n">
         <v>244</v>
@@ -8032,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="F245" t="n">
-        <v>0.549</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="G245" t="n">
         <v>237</v>
@@ -8063,7 +8063,7 @@
         <v>4</v>
       </c>
       <c r="F246" t="n">
-        <v>0.476</v>
+        <v>52.70270270270269</v>
       </c>
       <c r="G246" t="n">
         <v>232</v>
@@ -8094,7 +8094,7 @@
         <v>6</v>
       </c>
       <c r="F247" t="n">
-        <v>0.451</v>
+        <v>50</v>
       </c>
       <c r="G247" t="n">
         <v>241</v>
@@ -8125,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="F248" t="n">
-        <v>0.427</v>
+        <v>48.61111111111111</v>
       </c>
       <c r="G248" t="n">
         <v>225</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>0.622</v>
+        <v>71.83098591549296</v>
       </c>
       <c r="G249" t="n">
         <v>248</v>
@@ -8187,7 +8187,7 @@
         <v>7</v>
       </c>
       <c r="F250" t="n">
-        <v>0.232</v>
+        <v>26.02739726027397</v>
       </c>
       <c r="G250" t="n">
         <v>204</v>
@@ -8218,7 +8218,7 @@
         <v>3</v>
       </c>
       <c r="F251" t="n">
-        <v>0.549</v>
+        <v>60</v>
       </c>
       <c r="G251" t="n">
         <v>246</v>
@@ -8249,7 +8249,7 @@
         <v>8</v>
       </c>
       <c r="F252" t="n">
-        <v>0.366</v>
+        <v>44.77611940298507</v>
       </c>
       <c r="G252" t="n">
         <v>227</v>
@@ -8280,7 +8280,7 @@
         <v>2</v>
       </c>
       <c r="F253" t="n">
-        <v>0.537</v>
+        <v>62.85714285714285</v>
       </c>
       <c r="G253" t="n">
         <v>227</v>
@@ -8311,7 +8311,7 @@
         <v>5</v>
       </c>
       <c r="F254" t="n">
-        <v>0.305</v>
+        <v>35.2112676056338</v>
       </c>
       <c r="G254" t="n">
         <v>188</v>
@@ -8342,7 +8342,7 @@
         <v>2</v>
       </c>
       <c r="F255" t="n">
-        <v>0.28</v>
+        <v>32.85714285714285</v>
       </c>
       <c r="G255" t="n">
         <v>211</v>
@@ -8373,7 +8373,7 @@
         <v>8</v>
       </c>
       <c r="F256" t="n">
-        <v>0.439</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="G256" t="n">
         <v>227</v>
@@ -8404,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>0.5610000000000001</v>
+        <v>59.74025974025974</v>
       </c>
       <c r="G257" t="n">
         <v>218</v>
@@ -8435,7 +8435,7 @@
         <v>4</v>
       </c>
       <c r="F258" t="n">
-        <v>0.329</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="G258" t="n">
         <v>197</v>
@@ -8466,7 +8466,7 @@
         <v>3</v>
       </c>
       <c r="F259" t="n">
-        <v>0.463</v>
+        <v>52.05479452054794</v>
       </c>
       <c r="G259" t="n">
         <v>212</v>
@@ -8497,7 +8497,7 @@
         <v>6</v>
       </c>
       <c r="F260" t="n">
-        <v>0.341</v>
+        <v>38.35616438356164</v>
       </c>
       <c r="G260" t="n">
         <v>190</v>
@@ -8528,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="F261" t="n">
-        <v>0.354</v>
+        <v>39.18918918918919</v>
       </c>
       <c r="G261" t="n">
         <v>210</v>
@@ -8559,7 +8559,7 @@
         <v>4</v>
       </c>
       <c r="F262" t="n">
-        <v>0.634</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="G262" t="n">
         <v>270</v>
@@ -8590,7 +8590,7 @@
         <v>2</v>
       </c>
       <c r="F263" t="n">
-        <v>0.585</v>
+        <v>64.86486486486487</v>
       </c>
       <c r="G263" t="n">
         <v>241</v>
@@ -8621,7 +8621,7 @@
         <v>4</v>
       </c>
       <c r="F264" t="n">
-        <v>0.598</v>
+        <v>67.12328767123287</v>
       </c>
       <c r="G264" t="n">
         <v>253</v>
@@ -8652,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="F265" t="n">
-        <v>0.476</v>
+        <v>55.71428571428572</v>
       </c>
       <c r="G265" t="n">
         <v>243</v>
@@ -8683,7 +8683,7 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>0.268</v>
+        <v>31.88405797101449</v>
       </c>
       <c r="G266" t="n">
         <v>200</v>
@@ -8714,7 +8714,7 @@
         <v>3</v>
       </c>
       <c r="F267" t="n">
-        <v>0.463</v>
+        <v>55.07246376811595</v>
       </c>
       <c r="G267" t="n">
         <v>252</v>
@@ -8745,7 +8745,7 @@
         <v>5</v>
       </c>
       <c r="F268" t="n">
-        <v>0.305</v>
+        <v>36.23188405797102</v>
       </c>
       <c r="G268" t="n">
         <v>168</v>
@@ -8776,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="F269" t="n">
-        <v>0.341</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="G269" t="n">
         <v>206</v>
@@ -8807,7 +8807,7 @@
         <v>3</v>
       </c>
       <c r="F270" t="n">
-        <v>0.415</v>
+        <v>46.57534246575342</v>
       </c>
       <c r="G270" t="n">
         <v>186</v>
@@ -8838,7 +8838,7 @@
         <v>3</v>
       </c>
       <c r="F271" t="n">
-        <v>0.585</v>
+        <v>68.57142857142857</v>
       </c>
       <c r="G271" t="n">
         <v>295</v>
@@ -8869,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="F272" t="n">
-        <v>0.256</v>
+        <v>28</v>
       </c>
       <c r="G272" t="n">
         <v>185</v>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="F273" t="n">
-        <v>0.402</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G273" t="n">
         <v>250</v>
@@ -8931,7 +8931,7 @@
         <v>4</v>
       </c>
       <c r="F274" t="n">
-        <v>0.585</v>
+        <v>65.75342465753424</v>
       </c>
       <c r="G274" t="n">
         <v>274</v>
@@ -8962,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="F275" t="n">
-        <v>0.524</v>
+        <v>60.56338028169014</v>
       </c>
       <c r="G275" t="n">
         <v>240</v>
@@ -8993,7 +8993,7 @@
         <v>3</v>
       </c>
       <c r="F276" t="n">
-        <v>0.427</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="G276" t="n">
         <v>214</v>
@@ -9024,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="F277" t="n">
-        <v>0.512</v>
+        <v>57.53424657534246</v>
       </c>
       <c r="G277" t="n">
         <v>281</v>
@@ -9055,7 +9055,7 @@
         <v>3</v>
       </c>
       <c r="F278" t="n">
-        <v>0.488</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G278" t="n">
         <v>217</v>
@@ -9086,7 +9086,7 @@
         <v>5</v>
       </c>
       <c r="F279" t="n">
-        <v>0.524</v>
+        <v>61.42857142857143</v>
       </c>
       <c r="G279" t="n">
         <v>249</v>
@@ -9117,7 +9117,7 @@
         <v>5</v>
       </c>
       <c r="F280" t="n">
-        <v>0.293</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="G280" t="n">
         <v>201</v>
@@ -9148,7 +9148,7 @@
         <v>5</v>
       </c>
       <c r="F281" t="n">
-        <v>0.451</v>
+        <v>52.11267605633802</v>
       </c>
       <c r="G281" t="n">
         <v>232</v>
@@ -9179,7 +9179,7 @@
         <v>7</v>
       </c>
       <c r="F282" t="n">
-        <v>0.439</v>
+        <v>50.70422535211267</v>
       </c>
       <c r="G282" t="n">
         <v>239</v>
@@ -9210,7 +9210,7 @@
         <v>4</v>
       </c>
       <c r="F283" t="n">
-        <v>0.5</v>
+        <v>56.94444444444444</v>
       </c>
       <c r="G283" t="n">
         <v>233</v>
@@ -9241,7 +9241,7 @@
         <v>3</v>
       </c>
       <c r="F284" t="n">
-        <v>0.354</v>
+        <v>39.18918918918919</v>
       </c>
       <c r="G284" t="n">
         <v>175</v>
@@ -9272,7 +9272,7 @@
         <v>5</v>
       </c>
       <c r="F285" t="n">
-        <v>0.232</v>
+        <v>26.76056338028169</v>
       </c>
       <c r="G285" t="n">
         <v>187</v>
@@ -9303,7 +9303,7 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>0.524</v>
+        <v>56.57894736842105</v>
       </c>
       <c r="G286" t="n">
         <v>236</v>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="F287" t="n">
-        <v>0.427</v>
+        <v>49.29577464788733</v>
       </c>
       <c r="G287" t="n">
         <v>213</v>
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="F288" t="n">
-        <v>0.39</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="G288" t="n">
         <v>201</v>
@@ -9396,7 +9396,7 @@
         <v>5</v>
       </c>
       <c r="F289" t="n">
-        <v>0.427</v>
+        <v>53.03030303030303</v>
       </c>
       <c r="G289" t="n">
         <v>217</v>
@@ -9427,7 +9427,7 @@
         <v>5</v>
       </c>
       <c r="F290" t="n">
-        <v>0.268</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="G290" t="n">
         <v>164</v>
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="F291" t="n">
-        <v>0.5</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="G291" t="n">
         <v>216</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="F292" t="n">
-        <v>0.549</v>
+        <v>60.81081081081081</v>
       </c>
       <c r="G292" t="n">
         <v>212</v>
@@ -9520,7 +9520,7 @@
         <v>5</v>
       </c>
       <c r="F293" t="n">
-        <v>0.439</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="G293" t="n">
         <v>215</v>
@@ -9551,7 +9551,7 @@
         <v>4</v>
       </c>
       <c r="F294" t="n">
-        <v>0.622</v>
+        <v>70.83333333333334</v>
       </c>
       <c r="G294" t="n">
         <v>251</v>
@@ -9582,7 +9582,7 @@
         <v>4</v>
       </c>
       <c r="F295" t="n">
-        <v>0.463</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="G295" t="n">
         <v>205</v>
@@ -9613,7 +9613,7 @@
         <v>6</v>
       </c>
       <c r="F296" t="n">
-        <v>0.268</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="G296" t="n">
         <v>180</v>
@@ -9644,7 +9644,7 @@
         <v>4</v>
       </c>
       <c r="F297" t="n">
-        <v>0.488</v>
+        <v>56.33802816901409</v>
       </c>
       <c r="G297" t="n">
         <v>214</v>
@@ -9675,7 +9675,7 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>0.317</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="G298" t="n">
         <v>195</v>
@@ -9706,7 +9706,7 @@
         <v>3</v>
       </c>
       <c r="F299" t="n">
-        <v>0.439</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="G299" t="n">
         <v>207</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>0.341</v>
+        <v>40.57971014492754</v>
       </c>
       <c r="G300" t="n">
         <v>196</v>
@@ -9768,7 +9768,7 @@
         <v>4</v>
       </c>
       <c r="F301" t="n">
-        <v>0.5</v>
+        <v>56.16438356164384</v>
       </c>
       <c r="G301" t="n">
         <v>205</v>
@@ -9799,7 +9799,7 @@
         <v>4</v>
       </c>
       <c r="F302" t="n">
-        <v>0.512</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="G302" t="n">
         <v>239</v>
@@ -9830,7 +9830,7 @@
         <v>4</v>
       </c>
       <c r="F303" t="n">
-        <v>0.439</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="G303" t="n">
         <v>227</v>
@@ -9861,7 +9861,7 @@
         <v>7</v>
       </c>
       <c r="F304" t="n">
-        <v>0.476</v>
+        <v>53.42465753424658</v>
       </c>
       <c r="G304" t="n">
         <v>243</v>
@@ -9892,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="F305" t="n">
-        <v>0.512</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G305" t="n">
         <v>234</v>
@@ -9923,7 +9923,7 @@
         <v>6</v>
       </c>
       <c r="F306" t="n">
-        <v>0.488</v>
+        <v>54.7945205479452</v>
       </c>
       <c r="G306" t="n">
         <v>228</v>
@@ -9954,7 +9954,7 @@
         <v>5</v>
       </c>
       <c r="F307" t="n">
-        <v>0.341</v>
+        <v>37.83783783783784</v>
       </c>
       <c r="G307" t="n">
         <v>198</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="F308" t="n">
-        <v>0.537</v>
+        <v>59.45945945945946</v>
       </c>
       <c r="G308" t="n">
         <v>248</v>
@@ -10016,7 +10016,7 @@
         <v>4</v>
       </c>
       <c r="F309" t="n">
-        <v>0.524</v>
+        <v>58.10810810810811</v>
       </c>
       <c r="G309" t="n">
         <v>227</v>
@@ -10047,7 +10047,7 @@
         <v>4</v>
       </c>
       <c r="F310" t="n">
-        <v>0.329</v>
+        <v>38.0281690140845</v>
       </c>
       <c r="G310" t="n">
         <v>178</v>
@@ -10078,7 +10078,7 @@
         <v>4</v>
       </c>
       <c r="F311" t="n">
-        <v>0.524</v>
+        <v>59.72222222222222</v>
       </c>
       <c r="G311" t="n">
         <v>249</v>
@@ -10109,7 +10109,7 @@
         <v>3</v>
       </c>
       <c r="F312" t="n">
-        <v>0.512</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G312" t="n">
         <v>254</v>
@@ -10140,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="F313" t="n">
-        <v>0.439</v>
+        <v>50.70422535211267</v>
       </c>
       <c r="G313" t="n">
         <v>228</v>
@@ -10171,7 +10171,7 @@
         <v>6</v>
       </c>
       <c r="F314" t="n">
-        <v>0.488</v>
+        <v>54.7945205479452</v>
       </c>
       <c r="G314" t="n">
         <v>203</v>
@@ -10202,7 +10202,7 @@
         <v>5</v>
       </c>
       <c r="F315" t="n">
-        <v>0.378</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="G315" t="n">
         <v>226</v>
@@ -10233,7 +10233,7 @@
         <v>4</v>
       </c>
       <c r="F316" t="n">
-        <v>0.439</v>
+        <v>50.70422535211267</v>
       </c>
       <c r="G316" t="n">
         <v>245</v>
@@ -10264,7 +10264,7 @@
         <v>8</v>
       </c>
       <c r="F317" t="n">
-        <v>0.329</v>
+        <v>37.5</v>
       </c>
       <c r="G317" t="n">
         <v>190</v>
@@ -10295,7 +10295,7 @@
         <v>4</v>
       </c>
       <c r="F318" t="n">
-        <v>0.354</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="G318" t="n">
         <v>186</v>
@@ -10326,7 +10326,7 @@
         <v>6</v>
       </c>
       <c r="F319" t="n">
-        <v>0.268</v>
+        <v>30.98591549295774</v>
       </c>
       <c r="G319" t="n">
         <v>171</v>
@@ -10357,7 +10357,7 @@
         <v>3</v>
       </c>
       <c r="F320" t="n">
-        <v>0.354</v>
+        <v>39.18918918918919</v>
       </c>
       <c r="G320" t="n">
         <v>213</v>
@@ -10388,7 +10388,7 @@
         <v>6</v>
       </c>
       <c r="F321" t="n">
-        <v>0.366</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="G321" t="n">
         <v>207</v>
@@ -10419,7 +10419,7 @@
         <v>8</v>
       </c>
       <c r="F322" t="n">
-        <v>0.512</v>
+        <v>60.86956521739131</v>
       </c>
       <c r="G322" t="n">
         <v>251</v>
@@ -10450,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="F323" t="n">
-        <v>0.5610000000000001</v>
+        <v>68.65671641791045</v>
       </c>
       <c r="G323" t="n">
         <v>245</v>
@@ -10481,7 +10481,7 @@
         <v>4</v>
       </c>
       <c r="F324" t="n">
-        <v>0.585</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G324" t="n">
         <v>269</v>
@@ -10512,7 +10512,7 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>0.439</v>
+        <v>50.70422535211267</v>
       </c>
       <c r="G325" t="n">
         <v>231</v>
@@ -10543,7 +10543,7 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>0.293</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="G326" t="n">
         <v>176</v>
@@ -10574,7 +10574,7 @@
         <v>6</v>
       </c>
       <c r="F327" t="n">
-        <v>0.402</v>
+        <v>43.42105263157895</v>
       </c>
       <c r="G327" t="n">
         <v>203</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="F328" t="n">
-        <v>0.512</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G328" t="n">
         <v>198</v>
@@ -10636,7 +10636,7 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>0.366</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="G329" t="n">
         <v>206</v>
@@ -10667,7 +10667,7 @@
         <v>7</v>
       </c>
       <c r="F330" t="n">
-        <v>0.329</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="G330" t="n">
         <v>183</v>
@@ -10698,7 +10698,7 @@
         <v>6</v>
       </c>
       <c r="F331" t="n">
-        <v>0.5610000000000001</v>
+        <v>63.88888888888889</v>
       </c>
       <c r="G331" t="n">
         <v>216</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="F332" t="n">
-        <v>0.427</v>
+        <v>49.29577464788733</v>
       </c>
       <c r="G332" t="n">
         <v>224</v>
@@ -10760,7 +10760,7 @@
         <v>4</v>
       </c>
       <c r="F333" t="n">
-        <v>0.39</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="G333" t="n">
         <v>210</v>
@@ -10791,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="F334" t="n">
-        <v>0.634</v>
+        <v>70.27027027027027</v>
       </c>
       <c r="G334" t="n">
         <v>263</v>
@@ -10822,7 +10822,7 @@
         <v>4</v>
       </c>
       <c r="F335" t="n">
-        <v>0.549</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="G335" t="n">
         <v>211</v>
@@ -10853,7 +10853,7 @@
         <v>5</v>
       </c>
       <c r="F336" t="n">
-        <v>0.378</v>
+        <v>43.66197183098591</v>
       </c>
       <c r="G336" t="n">
         <v>204</v>
@@ -10884,7 +10884,7 @@
         <v>5</v>
       </c>
       <c r="F337" t="n">
-        <v>0.329</v>
+        <v>35.52631578947368</v>
       </c>
       <c r="G337" t="n">
         <v>189</v>
@@ -10915,7 +10915,7 @@
         <v>8</v>
       </c>
       <c r="F338" t="n">
-        <v>0.341</v>
+        <v>38.35616438356164</v>
       </c>
       <c r="G338" t="n">
         <v>214</v>
@@ -10946,7 +10946,7 @@
         <v>6</v>
       </c>
       <c r="F339" t="n">
-        <v>0.5</v>
+        <v>57.74647887323944</v>
       </c>
       <c r="G339" t="n">
         <v>253</v>
@@ -10977,7 +10977,7 @@
         <v>5</v>
       </c>
       <c r="F340" t="n">
-        <v>0.439</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G340" t="n">
         <v>219</v>
@@ -11008,7 +11008,7 @@
         <v>3</v>
       </c>
       <c r="F341" t="n">
-        <v>0.537</v>
+        <v>58.66666666666666</v>
       </c>
       <c r="G341" t="n">
         <v>236</v>
@@ -11039,7 +11039,7 @@
         <v>1</v>
       </c>
       <c r="F342" t="n">
-        <v>0.549</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="G342" t="n">
         <v>264</v>
@@ -11070,7 +11070,7 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>0.476</v>
+        <v>52.70270270270269</v>
       </c>
       <c r="G343" t="n">
         <v>224</v>
@@ -11101,7 +11101,7 @@
         <v>8</v>
       </c>
       <c r="F344" t="n">
-        <v>0.354</v>
+        <v>40.27777777777778</v>
       </c>
       <c r="G344" t="n">
         <v>184</v>
@@ -11132,7 +11132,7 @@
         <v>4</v>
       </c>
       <c r="F345" t="n">
-        <v>0.402</v>
+        <v>44.5945945945946</v>
       </c>
       <c r="G345" t="n">
         <v>214</v>
@@ -11163,7 +11163,7 @@
         <v>7</v>
       </c>
       <c r="F346" t="n">
-        <v>0.5</v>
+        <v>61.19402985074627</v>
       </c>
       <c r="G346" t="n">
         <v>209</v>
@@ -11194,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="F347" t="n">
-        <v>0.451</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="G347" t="n">
         <v>220</v>
@@ -11225,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="F348" t="n">
-        <v>0.512</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G348" t="n">
         <v>200</v>
@@ -11256,7 +11256,7 @@
         <v>6</v>
       </c>
       <c r="F349" t="n">
-        <v>0.341</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="G349" t="n">
         <v>172</v>
@@ -11287,7 +11287,7 @@
         <v>4</v>
       </c>
       <c r="F350" t="n">
-        <v>0.305</v>
+        <v>33.78378378378378</v>
       </c>
       <c r="G350" t="n">
         <v>177</v>
@@ -11318,7 +11318,7 @@
         <v>8</v>
       </c>
       <c r="F351" t="n">
-        <v>0.244</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="G351" t="n">
         <v>188</v>
@@ -11349,7 +11349,7 @@
         <v>7</v>
       </c>
       <c r="F352" t="n">
-        <v>0.488</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="G352" t="n">
         <v>236</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="F353" t="n">
-        <v>0.5</v>
+        <v>59.42028985507246</v>
       </c>
       <c r="G353" t="n">
         <v>194</v>
@@ -11411,7 +11411,7 @@
         <v>2</v>
       </c>
       <c r="F354" t="n">
-        <v>0.585</v>
+        <v>67.6056338028169</v>
       </c>
       <c r="G354" t="n">
         <v>255</v>
@@ -11442,7 +11442,7 @@
         <v>5</v>
       </c>
       <c r="F355" t="n">
-        <v>0.439</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="G355" t="n">
         <v>221</v>
@@ -11473,7 +11473,7 @@
         <v>4</v>
       </c>
       <c r="F356" t="n">
-        <v>0.341</v>
+        <v>41.7910447761194</v>
       </c>
       <c r="G356" t="n">
         <v>188</v>
@@ -11504,7 +11504,7 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>0.341</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="G357" t="n">
         <v>205</v>
@@ -11535,7 +11535,7 @@
         <v>3</v>
       </c>
       <c r="F358" t="n">
-        <v>0.366</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="G358" t="n">
         <v>188</v>
@@ -11566,7 +11566,7 @@
         <v>4</v>
       </c>
       <c r="F359" t="n">
-        <v>0.5</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="G359" t="n">
         <v>208</v>
@@ -11597,7 +11597,7 @@
         <v>4</v>
       </c>
       <c r="F360" t="n">
-        <v>0.463</v>
+        <v>53.52112676056338</v>
       </c>
       <c r="G360" t="n">
         <v>216</v>
@@ -11628,7 +11628,7 @@
         <v>2</v>
       </c>
       <c r="F361" t="n">
-        <v>0.524</v>
+        <v>61.42857142857143</v>
       </c>
       <c r="G361" t="n">
         <v>213</v>
@@ -11659,7 +11659,7 @@
         <v>4</v>
       </c>
       <c r="F362" t="n">
-        <v>0.463</v>
+        <v>53.52112676056338</v>
       </c>
       <c r="G362" t="n">
         <v>237</v>
@@ -11690,7 +11690,7 @@
         <v>8</v>
       </c>
       <c r="F363" t="n">
-        <v>0.329</v>
+        <v>36</v>
       </c>
       <c r="G363" t="n">
         <v>206</v>
@@ -11721,7 +11721,7 @@
         <v>6</v>
       </c>
       <c r="F364" t="n">
-        <v>0.524</v>
+        <v>59.72222222222222</v>
       </c>
       <c r="G364" t="n">
         <v>262</v>
@@ -11752,7 +11752,7 @@
         <v>6</v>
       </c>
       <c r="F365" t="n">
-        <v>0.488</v>
+        <v>59.70149253731343</v>
       </c>
       <c r="G365" t="n">
         <v>229</v>
@@ -11783,7 +11783,7 @@
         <v>6</v>
       </c>
       <c r="F366" t="n">
-        <v>0.268</v>
+        <v>34.375</v>
       </c>
       <c r="G366" t="n">
         <v>188</v>
@@ -11814,7 +11814,7 @@
         <v>4</v>
       </c>
       <c r="F367" t="n">
-        <v>0.28</v>
+        <v>31.08108108108108</v>
       </c>
       <c r="G367" t="n">
         <v>190</v>
@@ -11845,7 +11845,7 @@
         <v>6</v>
       </c>
       <c r="F368" t="n">
-        <v>0.524</v>
+        <v>61.42857142857143</v>
       </c>
       <c r="G368" t="n">
         <v>219</v>
@@ -11876,7 +11876,7 @@
         <v>2</v>
       </c>
       <c r="F369" t="n">
-        <v>0.476</v>
+        <v>54.92957746478874</v>
       </c>
       <c r="G369" t="n">
         <v>191</v>
@@ -11907,7 +11907,7 @@
         <v>6</v>
       </c>
       <c r="F370" t="n">
-        <v>0.5610000000000001</v>
+        <v>62.16216216216216</v>
       </c>
       <c r="G370" t="n">
         <v>245</v>
@@ -11938,7 +11938,7 @@
         <v>3</v>
       </c>
       <c r="F371" t="n">
-        <v>0.549</v>
+        <v>62.5</v>
       </c>
       <c r="G371" t="n">
         <v>242</v>
@@ -11969,7 +11969,7 @@
         <v>5</v>
       </c>
       <c r="F372" t="n">
-        <v>0.524</v>
+        <v>59.72222222222222</v>
       </c>
       <c r="G372" t="n">
         <v>235</v>
@@ -12000,7 +12000,7 @@
         <v>3</v>
       </c>
       <c r="F373" t="n">
-        <v>0.28</v>
+        <v>31.94444444444444</v>
       </c>
       <c r="G373" t="n">
         <v>186</v>
@@ -12031,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="F374" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G374" t="n">
         <v>254</v>
@@ -12062,7 +12062,7 @@
         <v>8</v>
       </c>
       <c r="F375" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G375" t="n">
         <v>281</v>
@@ -12093,7 +12093,7 @@
         <v>16</v>
       </c>
       <c r="F376" t="n">
-        <v>0.354</v>
+        <v>35.36585365853659</v>
       </c>
       <c r="G376" t="n">
         <v>230</v>
@@ -12124,7 +12124,7 @@
         <v>6</v>
       </c>
       <c r="F377" t="n">
-        <v>0.634</v>
+        <v>63.41463414634146</v>
       </c>
       <c r="G377" t="n">
         <v>281</v>
@@ -12155,7 +12155,7 @@
         <v>11</v>
       </c>
       <c r="F378" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G378" t="n">
         <v>218</v>
@@ -12186,7 +12186,7 @@
         <v>8</v>
       </c>
       <c r="F379" t="n">
-        <v>0.634</v>
+        <v>63.41463414634146</v>
       </c>
       <c r="G379" t="n">
         <v>294</v>
@@ -12217,7 +12217,7 @@
         <v>4</v>
       </c>
       <c r="F380" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G380" t="n">
         <v>223</v>
@@ -12248,7 +12248,7 @@
         <v>13</v>
       </c>
       <c r="F381" t="n">
-        <v>0.317</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="G381" t="n">
         <v>211</v>
@@ -12279,7 +12279,7 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G382" t="n">
         <v>283</v>
@@ -12310,7 +12310,7 @@
         <v>6</v>
       </c>
       <c r="F383" t="n">
-        <v>0.646</v>
+        <v>64.63414634146342</v>
       </c>
       <c r="G383" t="n">
         <v>265</v>
@@ -12341,7 +12341,7 @@
         <v>8</v>
       </c>
       <c r="F384" t="n">
-        <v>0.707</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="G384" t="n">
         <v>305</v>
@@ -12372,7 +12372,7 @@
         <v>13</v>
       </c>
       <c r="F385" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G385" t="n">
         <v>256</v>
@@ -12403,7 +12403,7 @@
         <v>11</v>
       </c>
       <c r="F386" t="n">
-        <v>0.451</v>
+        <v>45.1219512195122</v>
       </c>
       <c r="G386" t="n">
         <v>240</v>
@@ -12434,7 +12434,7 @@
         <v>5</v>
       </c>
       <c r="F387" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G387" t="n">
         <v>249</v>
@@ -12465,7 +12465,7 @@
         <v>8</v>
       </c>
       <c r="F388" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G388" t="n">
         <v>231</v>
@@ -12496,7 +12496,7 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G389" t="n">
         <v>243</v>
@@ -12527,7 +12527,7 @@
         <v>8</v>
       </c>
       <c r="F390" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G390" t="n">
         <v>259</v>
@@ -12558,7 +12558,7 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G391" t="n">
         <v>242</v>
@@ -12589,7 +12589,7 @@
         <v>6</v>
       </c>
       <c r="F392" t="n">
-        <v>0.439</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="G392" t="n">
         <v>230</v>
@@ -12620,7 +12620,7 @@
         <v>12</v>
       </c>
       <c r="F393" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G393" t="n">
         <v>257</v>
@@ -12651,7 +12651,7 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>0.634</v>
+        <v>63.41463414634146</v>
       </c>
       <c r="G394" t="n">
         <v>314</v>
@@ -12682,7 +12682,7 @@
         <v>11</v>
       </c>
       <c r="F395" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G395" t="n">
         <v>267</v>
@@ -12713,7 +12713,7 @@
         <v>5</v>
       </c>
       <c r="F396" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G396" t="n">
         <v>246</v>
@@ -12744,7 +12744,7 @@
         <v>14</v>
       </c>
       <c r="F397" t="n">
-        <v>0.268</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="G397" t="n">
         <v>244</v>
@@ -12775,7 +12775,7 @@
         <v>11</v>
       </c>
       <c r="F398" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G398" t="n">
         <v>266</v>
@@ -12806,7 +12806,7 @@
         <v>15</v>
       </c>
       <c r="F399" t="n">
-        <v>0.256</v>
+        <v>25.60975609756098</v>
       </c>
       <c r="G399" t="n">
         <v>197</v>
@@ -12837,7 +12837,7 @@
         <v>6</v>
       </c>
       <c r="F400" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G400" t="n">
         <v>252</v>
@@ -12868,7 +12868,7 @@
         <v>8</v>
       </c>
       <c r="F401" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G401" t="n">
         <v>257</v>
@@ -12899,7 +12899,7 @@
         <v>8</v>
       </c>
       <c r="F402" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G402" t="n">
         <v>256</v>
@@ -12930,7 +12930,7 @@
         <v>12</v>
       </c>
       <c r="F403" t="n">
-        <v>0.354</v>
+        <v>35.36585365853659</v>
       </c>
       <c r="G403" t="n">
         <v>237</v>
@@ -12961,7 +12961,7 @@
         <v>14</v>
       </c>
       <c r="F404" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G404" t="n">
         <v>258</v>
@@ -12992,7 +12992,7 @@
         <v>11</v>
       </c>
       <c r="F405" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G405" t="n">
         <v>246</v>
@@ -13023,7 +13023,7 @@
         <v>6</v>
       </c>
       <c r="F406" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G406" t="n">
         <v>219</v>
@@ -13054,7 +13054,7 @@
         <v>7</v>
       </c>
       <c r="F407" t="n">
-        <v>0.646</v>
+        <v>64.63414634146342</v>
       </c>
       <c r="G407" t="n">
         <v>308</v>
@@ -13085,7 +13085,7 @@
         <v>10</v>
       </c>
       <c r="F408" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G408" t="n">
         <v>258</v>
@@ -13116,7 +13116,7 @@
         <v>8</v>
       </c>
       <c r="F409" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G409" t="n">
         <v>241</v>
@@ -13147,7 +13147,7 @@
         <v>7</v>
       </c>
       <c r="F410" t="n">
-        <v>0.402</v>
+        <v>40.2439024390244</v>
       </c>
       <c r="G410" t="n">
         <v>201</v>
@@ -13178,7 +13178,7 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>0.378</v>
+        <v>37.80487804878049</v>
       </c>
       <c r="G411" t="n">
         <v>201</v>
@@ -13209,7 +13209,7 @@
         <v>7</v>
       </c>
       <c r="F412" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G412" t="n">
         <v>272</v>
@@ -13240,7 +13240,7 @@
         <v>7</v>
       </c>
       <c r="F413" t="n">
-        <v>0.61</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="G413" t="n">
         <v>226</v>
@@ -13271,7 +13271,7 @@
         <v>13</v>
       </c>
       <c r="F414" t="n">
-        <v>0.61</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="G414" t="n">
         <v>254</v>
@@ -13302,7 +13302,7 @@
         <v>7</v>
       </c>
       <c r="F415" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G415" t="n">
         <v>195</v>
@@ -13333,7 +13333,7 @@
         <v>16</v>
       </c>
       <c r="F416" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G416" t="n">
         <v>247</v>
@@ -13364,7 +13364,7 @@
         <v>14</v>
       </c>
       <c r="F417" t="n">
-        <v>0.329</v>
+        <v>32.92682926829269</v>
       </c>
       <c r="G417" t="n">
         <v>227</v>
@@ -13395,7 +13395,7 @@
         <v>8</v>
       </c>
       <c r="F418" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G418" t="n">
         <v>235</v>
@@ -13426,7 +13426,7 @@
         <v>6</v>
       </c>
       <c r="F419" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G419" t="n">
         <v>245</v>
@@ -13457,7 +13457,7 @@
         <v>8</v>
       </c>
       <c r="F420" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G420" t="n">
         <v>272</v>
@@ -13488,7 +13488,7 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G421" t="n">
         <v>216</v>
@@ -13519,7 +13519,7 @@
         <v>12</v>
       </c>
       <c r="F422" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G422" t="n">
         <v>248</v>
@@ -13550,7 +13550,7 @@
         <v>10</v>
       </c>
       <c r="F423" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G423" t="n">
         <v>242</v>
@@ -13581,7 +13581,7 @@
         <v>9</v>
       </c>
       <c r="F424" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G424" t="n">
         <v>288</v>
@@ -13612,7 +13612,7 @@
         <v>12</v>
       </c>
       <c r="F425" t="n">
-        <v>0.268</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="G425" t="n">
         <v>214</v>
@@ -13643,7 +13643,7 @@
         <v>5</v>
       </c>
       <c r="F426" t="n">
-        <v>0.378</v>
+        <v>37.80487804878049</v>
       </c>
       <c r="G426" t="n">
         <v>216</v>
@@ -13674,7 +13674,7 @@
         <v>11</v>
       </c>
       <c r="F427" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G427" t="n">
         <v>277</v>
@@ -13705,7 +13705,7 @@
         <v>5</v>
       </c>
       <c r="F428" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G428" t="n">
         <v>258</v>
@@ -13736,7 +13736,7 @@
         <v>13</v>
       </c>
       <c r="F429" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G429" t="n">
         <v>214</v>
@@ -13767,7 +13767,7 @@
         <v>5</v>
       </c>
       <c r="F430" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G430" t="n">
         <v>253</v>
@@ -13798,7 +13798,7 @@
         <v>11</v>
       </c>
       <c r="F431" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G431" t="n">
         <v>258</v>
@@ -13829,7 +13829,7 @@
         <v>7</v>
       </c>
       <c r="F432" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G432" t="n">
         <v>222</v>
@@ -13860,7 +13860,7 @@
         <v>14</v>
       </c>
       <c r="F433" t="n">
-        <v>0.341</v>
+        <v>34.14634146341464</v>
       </c>
       <c r="G433" t="n">
         <v>235</v>
@@ -13891,7 +13891,7 @@
         <v>8</v>
       </c>
       <c r="F434" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G434" t="n">
         <v>205</v>
@@ -13922,7 +13922,7 @@
         <v>8</v>
       </c>
       <c r="F435" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G435" t="n">
         <v>216</v>
@@ -13953,7 +13953,7 @@
         <v>12</v>
       </c>
       <c r="F436" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G436" t="n">
         <v>212</v>
@@ -13984,7 +13984,7 @@
         <v>12</v>
       </c>
       <c r="F437" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G437" t="n">
         <v>255</v>
@@ -14015,7 +14015,7 @@
         <v>10</v>
       </c>
       <c r="F438" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G438" t="n">
         <v>229</v>
@@ -14046,7 +14046,7 @@
         <v>6</v>
       </c>
       <c r="F439" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G439" t="n">
         <v>252</v>
@@ -14077,7 +14077,7 @@
         <v>12</v>
       </c>
       <c r="F440" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G440" t="n">
         <v>193</v>
@@ -14108,7 +14108,7 @@
         <v>8</v>
       </c>
       <c r="F441" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G441" t="n">
         <v>239</v>
@@ -14139,7 +14139,7 @@
         <v>7</v>
       </c>
       <c r="F442" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G442" t="n">
         <v>231</v>
@@ -14170,7 +14170,7 @@
         <v>7</v>
       </c>
       <c r="F443" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G443" t="n">
         <v>242</v>
@@ -14201,7 +14201,7 @@
         <v>7</v>
       </c>
       <c r="F444" t="n">
-        <v>0.659</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="G444" t="n">
         <v>257</v>
@@ -14232,7 +14232,7 @@
         <v>6</v>
       </c>
       <c r="F445" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G445" t="n">
         <v>235</v>
@@ -14263,7 +14263,7 @@
         <v>9</v>
       </c>
       <c r="F446" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G446" t="n">
         <v>216</v>
@@ -14294,7 +14294,7 @@
         <v>7</v>
       </c>
       <c r="F447" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G447" t="n">
         <v>231</v>
@@ -14325,7 +14325,7 @@
         <v>10</v>
       </c>
       <c r="F448" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G448" t="n">
         <v>223</v>
@@ -14356,7 +14356,7 @@
         <v>10</v>
       </c>
       <c r="F449" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G449" t="n">
         <v>262</v>
@@ -14387,7 +14387,7 @@
         <v>9</v>
       </c>
       <c r="F450" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G450" t="n">
         <v>230</v>
@@ -14418,7 +14418,7 @@
         <v>7</v>
       </c>
       <c r="F451" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G451" t="n">
         <v>206</v>
@@ -14449,7 +14449,7 @@
         <v>9</v>
       </c>
       <c r="F452" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G452" t="n">
         <v>194</v>
@@ -14480,7 +14480,7 @@
         <v>13</v>
       </c>
       <c r="F453" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G453" t="n">
         <v>213</v>
@@ -14511,7 +14511,7 @@
         <v>8</v>
       </c>
       <c r="F454" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G454" t="n">
         <v>261</v>
@@ -14542,7 +14542,7 @@
         <v>11</v>
       </c>
       <c r="F455" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G455" t="n">
         <v>248</v>
@@ -14573,7 +14573,7 @@
         <v>7</v>
       </c>
       <c r="F456" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G456" t="n">
         <v>214</v>
@@ -14604,7 +14604,7 @@
         <v>8</v>
       </c>
       <c r="F457" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G457" t="n">
         <v>247</v>
@@ -14635,7 +14635,7 @@
         <v>10</v>
       </c>
       <c r="F458" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G458" t="n">
         <v>222</v>
@@ -14666,7 +14666,7 @@
         <v>13</v>
       </c>
       <c r="F459" t="n">
-        <v>0.402</v>
+        <v>40.2439024390244</v>
       </c>
       <c r="G459" t="n">
         <v>205</v>
@@ -14697,7 +14697,7 @@
         <v>9</v>
       </c>
       <c r="F460" t="n">
-        <v>0.378</v>
+        <v>37.80487804878049</v>
       </c>
       <c r="G460" t="n">
         <v>223</v>
@@ -14728,7 +14728,7 @@
         <v>11</v>
       </c>
       <c r="F461" t="n">
-        <v>0.439</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="G461" t="n">
         <v>231</v>
@@ -14759,7 +14759,7 @@
         <v>10</v>
       </c>
       <c r="F462" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G462" t="n">
         <v>213</v>
@@ -14790,7 +14790,7 @@
         <v>8</v>
       </c>
       <c r="F463" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G463" t="n">
         <v>242</v>
@@ -14821,7 +14821,7 @@
         <v>7</v>
       </c>
       <c r="F464" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G464" t="n">
         <v>245</v>
@@ -14852,7 +14852,7 @@
         <v>6</v>
       </c>
       <c r="F465" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G465" t="n">
         <v>257</v>
@@ -14883,7 +14883,7 @@
         <v>10</v>
       </c>
       <c r="F466" t="n">
-        <v>0.646</v>
+        <v>64.63414634146342</v>
       </c>
       <c r="G466" t="n">
         <v>274</v>
@@ -14914,7 +14914,7 @@
         <v>9</v>
       </c>
       <c r="F467" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G467" t="n">
         <v>250</v>
@@ -14945,7 +14945,7 @@
         <v>6</v>
       </c>
       <c r="F468" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G468" t="n">
         <v>254</v>
@@ -14976,7 +14976,7 @@
         <v>7</v>
       </c>
       <c r="F469" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G469" t="n">
         <v>239</v>
@@ -15007,7 +15007,7 @@
         <v>10</v>
       </c>
       <c r="F470" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G470" t="n">
         <v>226</v>
@@ -15038,7 +15038,7 @@
         <v>12</v>
       </c>
       <c r="F471" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G471" t="n">
         <v>264</v>
@@ -15069,7 +15069,7 @@
         <v>5</v>
       </c>
       <c r="F472" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G472" t="n">
         <v>199</v>
@@ -15100,7 +15100,7 @@
         <v>11</v>
       </c>
       <c r="F473" t="n">
-        <v>0.439</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="G473" t="n">
         <v>230</v>
@@ -15131,7 +15131,7 @@
         <v>10</v>
       </c>
       <c r="F474" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G474" t="n">
         <v>295</v>
@@ -15162,7 +15162,7 @@
         <v>9</v>
       </c>
       <c r="F475" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G475" t="n">
         <v>234</v>
@@ -15193,7 +15193,7 @@
         <v>11</v>
       </c>
       <c r="F476" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G476" t="n">
         <v>234</v>
@@ -15224,7 +15224,7 @@
         <v>11</v>
       </c>
       <c r="F477" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G477" t="n">
         <v>207</v>
@@ -15255,7 +15255,7 @@
         <v>9</v>
       </c>
       <c r="F478" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G478" t="n">
         <v>219</v>
@@ -15286,7 +15286,7 @@
         <v>11</v>
       </c>
       <c r="F479" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G479" t="n">
         <v>249</v>
@@ -15317,7 +15317,7 @@
         <v>8</v>
       </c>
       <c r="F480" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G480" t="n">
         <v>213</v>
@@ -15348,7 +15348,7 @@
         <v>4</v>
       </c>
       <c r="F481" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G481" t="n">
         <v>244</v>
@@ -15379,7 +15379,7 @@
         <v>9</v>
       </c>
       <c r="F482" t="n">
-        <v>0.317</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="G482" t="n">
         <v>201</v>
@@ -15410,7 +15410,7 @@
         <v>9</v>
       </c>
       <c r="F483" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G483" t="n">
         <v>210</v>
@@ -15441,7 +15441,7 @@
         <v>11</v>
       </c>
       <c r="F484" t="n">
-        <v>0.439</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="G484" t="n">
         <v>217</v>
@@ -15472,7 +15472,7 @@
         <v>11</v>
       </c>
       <c r="F485" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G485" t="n">
         <v>264</v>
@@ -15503,7 +15503,7 @@
         <v>7</v>
       </c>
       <c r="F486" t="n">
-        <v>0.439</v>
+        <v>43.90243902439025</v>
       </c>
       <c r="G486" t="n">
         <v>208</v>
@@ -15534,7 +15534,7 @@
         <v>9</v>
       </c>
       <c r="F487" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G487" t="n">
         <v>264</v>
@@ -15565,7 +15565,7 @@
         <v>11</v>
       </c>
       <c r="F488" t="n">
-        <v>0.646</v>
+        <v>64.63414634146342</v>
       </c>
       <c r="G488" t="n">
         <v>257</v>
@@ -15596,7 +15596,7 @@
         <v>10</v>
       </c>
       <c r="F489" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G489" t="n">
         <v>233</v>
@@ -15627,7 +15627,7 @@
         <v>18</v>
       </c>
       <c r="F490" t="n">
-        <v>0.293</v>
+        <v>29.26829268292683</v>
       </c>
       <c r="G490" t="n">
         <v>210</v>
@@ -15658,7 +15658,7 @@
         <v>13</v>
       </c>
       <c r="F491" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G491" t="n">
         <v>250</v>
@@ -15689,7 +15689,7 @@
         <v>10</v>
       </c>
       <c r="F492" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G492" t="n">
         <v>246</v>
@@ -15720,7 +15720,7 @@
         <v>8</v>
       </c>
       <c r="F493" t="n">
-        <v>0.61</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="G493" t="n">
         <v>272</v>
@@ -15751,7 +15751,7 @@
         <v>11</v>
       </c>
       <c r="F494" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G494" t="n">
         <v>238</v>
@@ -15782,7 +15782,7 @@
         <v>13</v>
       </c>
       <c r="F495" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G495" t="n">
         <v>234</v>
@@ -15813,7 +15813,7 @@
         <v>13</v>
       </c>
       <c r="F496" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G496" t="n">
         <v>206</v>
@@ -15844,7 +15844,7 @@
         <v>10</v>
       </c>
       <c r="F497" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G497" t="n">
         <v>235</v>
@@ -15875,7 +15875,7 @@
         <v>10</v>
       </c>
       <c r="F498" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G498" t="n">
         <v>204</v>
@@ -15906,7 +15906,7 @@
         <v>10</v>
       </c>
       <c r="F499" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G499" t="n">
         <v>230</v>
@@ -15937,7 +15937,7 @@
         <v>15</v>
       </c>
       <c r="F500" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G500" t="n">
         <v>216</v>
@@ -15968,7 +15968,7 @@
         <v>8</v>
       </c>
       <c r="F501" t="n">
-        <v>0.634</v>
+        <v>63.41463414634146</v>
       </c>
       <c r="G501" t="n">
         <v>271</v>
@@ -15999,7 +15999,7 @@
         <v>9</v>
       </c>
       <c r="F502" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G502" t="n">
         <v>244</v>
@@ -16030,7 +16030,7 @@
         <v>14</v>
       </c>
       <c r="F503" t="n">
-        <v>0.451</v>
+        <v>45.1219512195122</v>
       </c>
       <c r="G503" t="n">
         <v>237</v>
@@ -16061,7 +16061,7 @@
         <v>14</v>
       </c>
       <c r="F504" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G504" t="n">
         <v>229</v>
@@ -16092,7 +16092,7 @@
         <v>8</v>
       </c>
       <c r="F505" t="n">
-        <v>0.329</v>
+        <v>32.92682926829269</v>
       </c>
       <c r="G505" t="n">
         <v>214</v>
@@ -16123,7 +16123,7 @@
         <v>13</v>
       </c>
       <c r="F506" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G506" t="n">
         <v>208</v>
@@ -16154,7 +16154,7 @@
         <v>9</v>
       </c>
       <c r="F507" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G507" t="n">
         <v>241</v>
@@ -16185,7 +16185,7 @@
         <v>8</v>
       </c>
       <c r="F508" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G508" t="n">
         <v>219</v>
@@ -16216,7 +16216,7 @@
         <v>10</v>
       </c>
       <c r="F509" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G509" t="n">
         <v>217</v>
@@ -16247,7 +16247,7 @@
         <v>6</v>
       </c>
       <c r="F510" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G510" t="n">
         <v>225</v>
@@ -16278,7 +16278,7 @@
         <v>7</v>
       </c>
       <c r="F511" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G511" t="n">
         <v>222</v>
@@ -16309,7 +16309,7 @@
         <v>11</v>
       </c>
       <c r="F512" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G512" t="n">
         <v>222</v>
@@ -16340,7 +16340,7 @@
         <v>11</v>
       </c>
       <c r="F513" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G513" t="n">
         <v>222</v>
@@ -16371,7 +16371,7 @@
         <v>6</v>
       </c>
       <c r="F514" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G514" t="n">
         <v>225</v>
@@ -16402,7 +16402,7 @@
         <v>6</v>
       </c>
       <c r="F515" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G515" t="n">
         <v>236</v>
@@ -16433,7 +16433,7 @@
         <v>7</v>
       </c>
       <c r="F516" t="n">
-        <v>0.61</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="G516" t="n">
         <v>225</v>
@@ -16464,7 +16464,7 @@
         <v>7</v>
       </c>
       <c r="F517" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G517" t="n">
         <v>257</v>
@@ -16495,7 +16495,7 @@
         <v>11</v>
       </c>
       <c r="F518" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G518" t="n">
         <v>264</v>
@@ -16526,7 +16526,7 @@
         <v>10</v>
       </c>
       <c r="F519" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G519" t="n">
         <v>225</v>
@@ -16557,7 +16557,7 @@
         <v>12</v>
       </c>
       <c r="F520" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G520" t="n">
         <v>217</v>
@@ -16588,7 +16588,7 @@
         <v>14</v>
       </c>
       <c r="F521" t="n">
-        <v>0.366</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="G521" t="n">
         <v>214</v>
@@ -16619,7 +16619,7 @@
         <v>5</v>
       </c>
       <c r="F522" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G522" t="n">
         <v>272</v>
@@ -16650,7 +16650,7 @@
         <v>13</v>
       </c>
       <c r="F523" t="n">
-        <v>0.659</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="G523" t="n">
         <v>318</v>
@@ -16681,7 +16681,7 @@
         <v>5</v>
       </c>
       <c r="F524" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G524" t="n">
         <v>239</v>
@@ -16712,7 +16712,7 @@
         <v>12</v>
       </c>
       <c r="F525" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G525" t="n">
         <v>223</v>
@@ -16743,7 +16743,7 @@
         <v>11</v>
       </c>
       <c r="F526" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G526" t="n">
         <v>246</v>
@@ -16774,7 +16774,7 @@
         <v>10</v>
       </c>
       <c r="F527" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G527" t="n">
         <v>245</v>
@@ -16805,7 +16805,7 @@
         <v>12</v>
       </c>
       <c r="F528" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G528" t="n">
         <v>250</v>
@@ -16836,7 +16836,7 @@
         <v>11</v>
       </c>
       <c r="F529" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G529" t="n">
         <v>236</v>
@@ -16867,7 +16867,7 @@
         <v>13</v>
       </c>
       <c r="F530" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G530" t="n">
         <v>215</v>
@@ -16898,7 +16898,7 @@
         <v>9</v>
       </c>
       <c r="F531" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G531" t="n">
         <v>258</v>
@@ -16929,7 +16929,7 @@
         <v>8</v>
       </c>
       <c r="F532" t="n">
-        <v>0.366</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="G532" t="n">
         <v>227</v>
@@ -16960,7 +16960,7 @@
         <v>11</v>
       </c>
       <c r="F533" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G533" t="n">
         <v>227</v>
@@ -16991,7 +16991,7 @@
         <v>10</v>
       </c>
       <c r="F534" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G534" t="n">
         <v>261</v>
@@ -17022,7 +17022,7 @@
         <v>12</v>
       </c>
       <c r="F535" t="n">
-        <v>0.305</v>
+        <v>30.48780487804878</v>
       </c>
       <c r="G535" t="n">
         <v>193</v>
@@ -17053,7 +17053,7 @@
         <v>12</v>
       </c>
       <c r="F536" t="n">
-        <v>0.366</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="G536" t="n">
         <v>195</v>
@@ -17084,7 +17084,7 @@
         <v>6</v>
       </c>
       <c r="F537" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G537" t="n">
         <v>219</v>
@@ -17115,7 +17115,7 @@
         <v>8</v>
       </c>
       <c r="F538" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G538" t="n">
         <v>206</v>
@@ -17146,7 +17146,7 @@
         <v>8</v>
       </c>
       <c r="F539" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G539" t="n">
         <v>216</v>
@@ -17177,7 +17177,7 @@
         <v>11</v>
       </c>
       <c r="F540" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G540" t="n">
         <v>219</v>
@@ -17208,7 +17208,7 @@
         <v>5</v>
       </c>
       <c r="F541" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G541" t="n">
         <v>174</v>
@@ -17239,7 +17239,7 @@
         <v>13</v>
       </c>
       <c r="F542" t="n">
-        <v>0.366</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="G542" t="n">
         <v>229</v>
@@ -17270,7 +17270,7 @@
         <v>5</v>
       </c>
       <c r="F543" t="n">
-        <v>0.537</v>
+        <v>53.65853658536586</v>
       </c>
       <c r="G543" t="n">
         <v>233</v>
@@ -17301,7 +17301,7 @@
         <v>10</v>
       </c>
       <c r="F544" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G544" t="n">
         <v>192</v>
@@ -17332,7 +17332,7 @@
         <v>12</v>
       </c>
       <c r="F545" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G545" t="n">
         <v>259</v>
@@ -17363,7 +17363,7 @@
         <v>13</v>
       </c>
       <c r="F546" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G546" t="n">
         <v>231</v>
@@ -17394,7 +17394,7 @@
         <v>8</v>
       </c>
       <c r="F547" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G547" t="n">
         <v>238</v>
@@ -17425,7 +17425,7 @@
         <v>9</v>
       </c>
       <c r="F548" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G548" t="n">
         <v>248</v>
@@ -17456,7 +17456,7 @@
         <v>11</v>
       </c>
       <c r="F549" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G549" t="n">
         <v>240</v>
@@ -17487,7 +17487,7 @@
         <v>11</v>
       </c>
       <c r="F550" t="n">
-        <v>0.5610000000000001</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="G550" t="n">
         <v>247</v>
@@ -17518,7 +17518,7 @@
         <v>11</v>
       </c>
       <c r="F551" t="n">
-        <v>0.451</v>
+        <v>45.1219512195122</v>
       </c>
       <c r="G551" t="n">
         <v>218</v>
@@ -17549,7 +17549,7 @@
         <v>9</v>
       </c>
       <c r="F552" t="n">
-        <v>0.659</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="G552" t="n">
         <v>262</v>
@@ -17580,7 +17580,7 @@
         <v>11</v>
       </c>
       <c r="F553" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G553" t="n">
         <v>224</v>
@@ -17611,7 +17611,7 @@
         <v>12</v>
       </c>
       <c r="F554" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G554" t="n">
         <v>204</v>
@@ -17642,7 +17642,7 @@
         <v>4</v>
       </c>
       <c r="F555" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G555" t="n">
         <v>269</v>
@@ -17673,7 +17673,7 @@
         <v>11</v>
       </c>
       <c r="F556" t="n">
-        <v>0.476</v>
+        <v>47.5609756097561</v>
       </c>
       <c r="G556" t="n">
         <v>218</v>
@@ -17704,7 +17704,7 @@
         <v>16</v>
       </c>
       <c r="F557" t="n">
-        <v>0.451</v>
+        <v>45.1219512195122</v>
       </c>
       <c r="G557" t="n">
         <v>202</v>
@@ -17735,7 +17735,7 @@
         <v>16</v>
       </c>
       <c r="F558" t="n">
-        <v>0.402</v>
+        <v>40.2439024390244</v>
       </c>
       <c r="G558" t="n">
         <v>213</v>
@@ -17766,7 +17766,7 @@
         <v>7</v>
       </c>
       <c r="F559" t="n">
-        <v>0.354</v>
+        <v>35.36585365853659</v>
       </c>
       <c r="G559" t="n">
         <v>202</v>
@@ -17797,7 +17797,7 @@
         <v>11</v>
       </c>
       <c r="F560" t="n">
-        <v>0.549</v>
+        <v>54.87804878048781</v>
       </c>
       <c r="G560" t="n">
         <v>248</v>
@@ -17828,7 +17828,7 @@
         <v>6</v>
       </c>
       <c r="F561" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G561" t="n">
         <v>208</v>
@@ -17859,7 +17859,7 @@
         <v>5</v>
       </c>
       <c r="F562" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G562" t="n">
         <v>211</v>
@@ -17890,7 +17890,7 @@
         <v>6</v>
       </c>
       <c r="F563" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G563" t="n">
         <v>248</v>
@@ -17921,7 +17921,7 @@
         <v>10</v>
       </c>
       <c r="F564" t="n">
-        <v>0.39</v>
+        <v>39.02439024390244</v>
       </c>
       <c r="G564" t="n">
         <v>212</v>
@@ -17952,7 +17952,7 @@
         <v>18</v>
       </c>
       <c r="F565" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G565" t="n">
         <v>203</v>
@@ -17983,7 +17983,7 @@
         <v>15</v>
       </c>
       <c r="F566" t="n">
-        <v>0.488</v>
+        <v>48.78048780487805</v>
       </c>
       <c r="G566" t="n">
         <v>194</v>
@@ -18014,7 +18014,7 @@
         <v>11</v>
       </c>
       <c r="F567" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G567" t="n">
         <v>177</v>
@@ -18045,7 +18045,7 @@
         <v>16</v>
       </c>
       <c r="F568" t="n">
-        <v>0.378</v>
+        <v>37.80487804878049</v>
       </c>
       <c r="G568" t="n">
         <v>212</v>
@@ -18076,7 +18076,7 @@
         <v>8</v>
       </c>
       <c r="F569" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G569" t="n">
         <v>237</v>
@@ -18107,7 +18107,7 @@
         <v>6</v>
       </c>
       <c r="F570" t="n">
-        <v>0.585</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G570" t="n">
         <v>228</v>
@@ -18138,7 +18138,7 @@
         <v>11</v>
       </c>
       <c r="F571" t="n">
-        <v>0.415</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="G571" t="n">
         <v>203</v>
@@ -18169,7 +18169,7 @@
         <v>7</v>
       </c>
       <c r="F572" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G572" t="n">
         <v>226</v>
@@ -18200,7 +18200,7 @@
         <v>10</v>
       </c>
       <c r="F573" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G573" t="n">
         <v>249</v>
@@ -18231,7 +18231,7 @@
         <v>9</v>
       </c>
       <c r="F574" t="n">
-        <v>0.573</v>
+        <v>57.3170731707317</v>
       </c>
       <c r="G574" t="n">
         <v>264</v>
@@ -18262,7 +18262,7 @@
         <v>13</v>
       </c>
       <c r="F575" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G575" t="n">
         <v>216</v>
@@ -18293,7 +18293,7 @@
         <v>6</v>
       </c>
       <c r="F576" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G576" t="n">
         <v>282</v>
@@ -18324,7 +18324,7 @@
         <v>10</v>
       </c>
       <c r="F577" t="n">
-        <v>0.524</v>
+        <v>52.4390243902439</v>
       </c>
       <c r="G577" t="n">
         <v>228</v>
@@ -18355,7 +18355,7 @@
         <v>11</v>
       </c>
       <c r="F578" t="n">
-        <v>0.598</v>
+        <v>59.7560975609756</v>
       </c>
       <c r="G578" t="n">
         <v>210</v>
@@ -18386,7 +18386,7 @@
         <v>8</v>
       </c>
       <c r="F579" t="n">
-        <v>0.463</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="G579" t="n">
         <v>235</v>
@@ -18417,7 +18417,7 @@
         <v>10</v>
       </c>
       <c r="F580" t="n">
-        <v>0.427</v>
+        <v>42.68292682926829</v>
       </c>
       <c r="G580" t="n">
         <v>231</v>
@@ -18448,7 +18448,7 @@
         <v>9</v>
       </c>
       <c r="F581" t="n">
-        <v>0.622</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="G581" t="n">
         <v>249</v>
@@ -18479,7 +18479,7 @@
         <v>8</v>
       </c>
       <c r="F582" t="n">
-        <v>0.512</v>
+        <v>51.21951219512195</v>
       </c>
       <c r="G582" t="n">
         <v>222</v>
@@ -18510,7 +18510,7 @@
         <v>10</v>
       </c>
       <c r="F583" t="n">
-        <v>0.451</v>
+        <v>45.1219512195122</v>
       </c>
       <c r="G583" t="n">
         <v>225</v>

--- a/hockey_cleaned.xlsx
+++ b/hockey_cleaned.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Win %</t>
+          <t>Win ratio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Goals For (GF)</t>
+          <t>Goals For</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Goals Against (GA)</t>
+          <t>Goals Against</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
